--- a/Base-宽表/gabase库数据库表字段说明.xlsx
+++ b/Base-宽表/gabase库数据库表字段说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14805" tabRatio="770"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14805" tabRatio="770" firstSheet="37" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="gabase库表集合" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="1465">
   <si>
     <t>gabase</t>
   </si>
@@ -7149,9 +7149,6 @@
   </si>
   <si>
     <t>订单标签类型：B1/B2/B3/B4-小B，K-开卡礼，S-试用礼，E-合作社e店，M-会员订单</t>
-  </si>
-  <si>
-    <t>consume_limit_tag_B1</t>
   </si>
   <si>
     <t>消费额度划分:if(tc.sum_100_price &gt;= 3000 and mot.trading_price &lt;= 100, 'B1', '') as B1_tag,
@@ -7160,15 +7157,6 @@
 if(tc.sum_10000_price &gt;= 100000 and mot.trading_price &gt;= 10000, 'B4', '') as B4_tag</t>
   </si>
   <si>
-    <t>consume_limit_tag_B2</t>
-  </si>
-  <si>
-    <t>consume_limit_tag_B3</t>
-  </si>
-  <si>
-    <t>consume_limit_tag_B4</t>
-  </si>
-  <si>
     <t>artel_tag</t>
   </si>
   <si>
@@ -7450,6 +7438,10 @@
   </si>
   <si>
     <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>consume_limit_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8369,8 +8361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16801,13 +16793,17 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -17695,21 +17691,24 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>1370</v>
+        <v>1464</v>
       </c>
       <c r="B83" t="s">
         <v>1310</v>
       </c>
       <c r="C83" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B84" t="s">
         <v>1310</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -17719,205 +17718,211 @@
       <c r="B85" t="s">
         <v>1310</v>
       </c>
+      <c r="C85" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B86" t="s">
         <v>1310</v>
       </c>
+      <c r="C86" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B87" t="s">
         <v>1310</v>
       </c>
       <c r="C87" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B88" t="s">
-        <v>1310</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B89" t="s">
-        <v>1310</v>
+        <v>1250</v>
       </c>
       <c r="C89" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B90" t="s">
-        <v>1310</v>
+        <v>1250</v>
       </c>
       <c r="C90" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>1250</v>
       </c>
       <c r="C91" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B92" t="s">
-        <v>1250</v>
+        <v>1356</v>
       </c>
       <c r="C92" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B93" t="s">
-        <v>1250</v>
+        <v>1358</v>
       </c>
       <c r="C93" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B94" t="s">
-        <v>1250</v>
+        <v>1392</v>
       </c>
       <c r="C94" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="B95" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="C95" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="B96" t="s">
-        <v>1358</v>
+        <v>1229</v>
       </c>
       <c r="C96" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="B97" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="C97" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="B98" t="s">
-        <v>1338</v>
+        <v>1399</v>
       </c>
       <c r="C98" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="B99" t="s">
-        <v>1229</v>
+        <v>1404</v>
       </c>
       <c r="C99" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="B100" t="s">
-        <v>1403</v>
+        <v>1250</v>
       </c>
       <c r="C100" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="B101" t="s">
-        <v>1403</v>
+        <v>1211</v>
       </c>
       <c r="C101" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="B102" t="s">
-        <v>1408</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B103" t="s">
-        <v>1250</v>
+        <v>1211</v>
       </c>
       <c r="C103" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B104" t="s">
         <v>1211</v>
@@ -17928,255 +17933,222 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>1356</v>
       </c>
       <c r="C105" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B106" t="s">
-        <v>1211</v>
+        <v>1356</v>
       </c>
       <c r="C106" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B107" t="s">
-        <v>1211</v>
+        <v>1229</v>
       </c>
       <c r="C107" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B108" t="s">
-        <v>1356</v>
+        <v>1209</v>
       </c>
       <c r="C108" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B109" t="s">
-        <v>1356</v>
+        <v>1424</v>
       </c>
       <c r="C109" t="s">
-        <v>1422</v>
+        <v>832</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B110" t="s">
-        <v>1229</v>
+        <v>1424</v>
       </c>
       <c r="C110" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B111" t="s">
-        <v>1209</v>
+        <v>1428</v>
       </c>
       <c r="C111" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B112" t="s">
-        <v>1428</v>
+        <v>1356</v>
       </c>
       <c r="C112" t="s">
-        <v>832</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B113" t="s">
-        <v>1428</v>
+        <v>1356</v>
       </c>
       <c r="C113" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B114" t="s">
-        <v>1432</v>
+        <v>1279</v>
       </c>
       <c r="C114" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B115" t="s">
         <v>1356</v>
       </c>
       <c r="C115" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B116" t="s">
         <v>1356</v>
       </c>
       <c r="C116" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B117" t="s">
-        <v>1279</v>
+        <v>1211</v>
       </c>
       <c r="C117" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B118" t="s">
-        <v>1356</v>
+        <v>1211</v>
       </c>
       <c r="C118" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B119" t="s">
-        <v>1356</v>
+        <v>1229</v>
       </c>
       <c r="C119" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B120" t="s">
-        <v>1211</v>
+        <v>1229</v>
       </c>
       <c r="C120" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B121" t="s">
-        <v>1211</v>
+        <v>1449</v>
       </c>
       <c r="C121" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B122" t="s">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C122" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="B123" t="s">
-        <v>1229</v>
+        <v>1455</v>
       </c>
       <c r="C123" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="B124" t="s">
-        <v>1453</v>
+        <v>1263</v>
       </c>
       <c r="C124" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
         <v>1458</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1462</v>
       </c>
     </row>
   </sheetData>
@@ -18211,24 +18183,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>1463</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>1467</v>
-      </c>
       <c r="C2" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
   </sheetData>
